--- a/InputData/io-model/HEbIC/Household Expenditures by ISIC Code.xlsx
+++ b/InputData/io-model/HEbIC/Household Expenditures by ISIC Code.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\add-outputs\HEbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\io-model\HEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A1D79D-3B05-48CD-A1B4-C73BC69F71BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD TTL" sheetId="7" r:id="rId2"/>
-    <sheet name="HEbIC" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD TTL" sheetId="2" r:id="rId2"/>
+    <sheet name="National HE" sheetId="3" r:id="rId3"/>
+    <sheet name="HEbIC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+  <si>
+    <t>HEbIC Household Expenditures by ISIC Code</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -43,12 +33,36 @@
     <t>OECD</t>
   </si>
   <si>
+    <t>Input-Output Tables 2018 Edition (ISIC Rev. 4)</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
+  </si>
+  <si>
+    <t>Variable: TTL</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>We convert 2015 USD to 2012 USD with the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2012 USD per 2015 USD</t>
+  </si>
+  <si>
     <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
   </si>
   <si>
+    <t>Dataset: Input-Output Tables 2018 edition</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>TTL: Total</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -64,7 +78,277 @@
     <t>Unit</t>
   </si>
   <si>
-    <t/>
+    <t>US Dollar, Millions</t>
+  </si>
+  <si>
+    <t>To: (sector in column)</t>
+  </si>
+  <si>
+    <t>D01T03: Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>D05T06: Mining and extraction of energy producing products</t>
+  </si>
+  <si>
+    <t>D07T08: Mining and quarrying of non-energy producing products</t>
+  </si>
+  <si>
+    <t>D09: Mining support service activities</t>
+  </si>
+  <si>
+    <t>D10T12: Food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>D13T15: Textiles, wearing apparel, leather and related products</t>
+  </si>
+  <si>
+    <t>D16: Wood and products of wood and cork</t>
+  </si>
+  <si>
+    <t>D17T18: Paper products and printing</t>
+  </si>
+  <si>
+    <t>D19: Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>D20T21: Chemicals and pharmaceutical products</t>
+  </si>
+  <si>
+    <t>D22: Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>D23: Other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>D24: Basic metals</t>
+  </si>
+  <si>
+    <t>D25: Fabricated metal products</t>
+  </si>
+  <si>
+    <t>D26: Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>D27: Electrical equipment</t>
+  </si>
+  <si>
+    <t>D28: Machinery and equipment, nec</t>
+  </si>
+  <si>
+    <t>D29: Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>D30: Other transport equipment</t>
+  </si>
+  <si>
+    <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
+  </si>
+  <si>
+    <t>D41T43: Construction</t>
+  </si>
+  <si>
+    <t>D45T47: Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>D49T53: Transportation and storage</t>
+  </si>
+  <si>
+    <t>D55T56: Accomodation and food services</t>
+  </si>
+  <si>
+    <t>D58T60: Publishing, audiovisual and broadcasting activities</t>
+  </si>
+  <si>
+    <t>D61: Telecommunications</t>
+  </si>
+  <si>
+    <t>D62T63: IT and other information services</t>
+  </si>
+  <si>
+    <t>D64T66: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>D68: Real estate activities</t>
+  </si>
+  <si>
+    <t>D69T82: Other business sector services</t>
+  </si>
+  <si>
+    <t>D84: Public admin. and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>D85: Education</t>
+  </si>
+  <si>
+    <t>D86T88: Human health and social work</t>
+  </si>
+  <si>
+    <t>D90T96: Arts, entertainment, recreation and other service activities</t>
+  </si>
+  <si>
+    <t>D97T98: Private households with employed persons</t>
+  </si>
+  <si>
+    <t>HFCE: Final consumption expenditure of households</t>
+  </si>
+  <si>
+    <t>NPISH: Final consumption expenditure of non-profit institutions serving households</t>
+  </si>
+  <si>
+    <t>GGFC: Final consumption expenditure of general government</t>
+  </si>
+  <si>
+    <t>GFCF: Gross Fixed Capital Formation</t>
+  </si>
+  <si>
+    <t>INVNT: Changes in inventories</t>
+  </si>
+  <si>
+    <t>CONS_ABR: Direct purchases abroad by residents (imports)</t>
+  </si>
+  <si>
+    <t>CONS_NONRES: Direct purchases by non-residents (exports)</t>
+  </si>
+  <si>
+    <t>EXPO: Exports (cross border)</t>
+  </si>
+  <si>
+    <t>IMPO: Imports (cross border)</t>
+  </si>
+  <si>
+    <t>From: (sector in row)</t>
+  </si>
+  <si>
+    <t>TTL_01T03: Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>TTL_05T06: Mining and extraction of energy producing products</t>
+  </si>
+  <si>
+    <t>TTL_07T08: Mining and quarrying of non-energy producing products</t>
+  </si>
+  <si>
+    <t>TTL_09: Mining support service activities</t>
+  </si>
+  <si>
+    <t>TTL_10T12: Food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>TTL_13T15: Textiles, wearing apparel, leather and related products</t>
+  </si>
+  <si>
+    <t>TTL_16: Wood and of products of wood and cork (except furniture)</t>
+  </si>
+  <si>
+    <t>TTL_17T18: Paper products and printing</t>
+  </si>
+  <si>
+    <t>TTL_19: Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>TTL_20T21: Chemicals and pharmaceutical products</t>
+  </si>
+  <si>
+    <t>TTL_22: Rubber and plastics products</t>
+  </si>
+  <si>
+    <t>TTL_23: Other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>TTL_24: Manufacture of basic metals</t>
+  </si>
+  <si>
+    <t>TTL_25: Fabricated metal products, except machinery and equipment</t>
+  </si>
+  <si>
+    <t>TTL_26: Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>TTL_27: Electrical equipment</t>
+  </si>
+  <si>
+    <t>TTL_28: Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>TTL_29: Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>TTL_30: Other transport equipment</t>
+  </si>
+  <si>
+    <t>TTL_31T33: Other manufacturing; repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>TTL_35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
+  </si>
+  <si>
+    <t>TTL_41T43: Construction</t>
+  </si>
+  <si>
+    <t>TTL_45T47: Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>TTL_49T53: Transportation and storage</t>
+  </si>
+  <si>
+    <t>TTL_55T56: Accomodation and food services</t>
+  </si>
+  <si>
+    <t>TTL_58T60: Publishing, audiovisual and broadcasting activities</t>
+  </si>
+  <si>
+    <t>TTL_61: Telecommunications</t>
+  </si>
+  <si>
+    <t>TTL_62T63: IT and other information services</t>
+  </si>
+  <si>
+    <t>TTL_64T66: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>TTL_68: Real estate activities</t>
+  </si>
+  <si>
+    <t>TTL_69T82: Other business sector services</t>
+  </si>
+  <si>
+    <t>TTL_84: Public administration and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>TTL_85: Education</t>
+  </si>
+  <si>
+    <t>TTL_86T88: Human health and social work</t>
+  </si>
+  <si>
+    <t>TTL_90T96: Arts, entertainment, recreation and other service activities</t>
+  </si>
+  <si>
+    <t>TTL_97T98: Private households with employed persons</t>
+  </si>
+  <si>
+    <t>TXS_IMP_FNL: Taxes less subsidies on intermediate and final products (paid in foreign countries)</t>
+  </si>
+  <si>
+    <t>TXS_INT_FNL: Taxes less subsidies on intermediate and final products (paid in domestic agencies, includes duty on imported products)</t>
+  </si>
+  <si>
+    <t>TTL_INT_FNL: Total intermediate consumption at purchasers’ prices</t>
+  </si>
+  <si>
+    <t>VALU: Value added at basic prices</t>
+  </si>
+  <si>
+    <t>OUTPUT: Output at basic prices</t>
+  </si>
+  <si>
+    <t>Data extracted on 03 Jun 2020 20:33 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Unit: USD</t>
   </si>
   <si>
     <t>ISIC 01T03</t>
@@ -173,306 +457,6 @@
   </si>
   <si>
     <t>ISIC 97T98</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-  </si>
-  <si>
-    <t>Dataset: Input-Output Tables 2018 edition</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>TTL: Total</t>
-  </si>
-  <si>
-    <t>US Dollar, Millions</t>
-  </si>
-  <si>
-    <t>To: (sector in column)</t>
-  </si>
-  <si>
-    <t>D01T03: Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>D05T06: Mining and extraction of energy producing products</t>
-  </si>
-  <si>
-    <t>D07T08: Mining and quarrying of non-energy producing products</t>
-  </si>
-  <si>
-    <t>D09: Mining support service activities</t>
-  </si>
-  <si>
-    <t>D10T12: Food products, beverages and tobacco</t>
-  </si>
-  <si>
-    <t>D13T15: Textiles, wearing apparel, leather and related products</t>
-  </si>
-  <si>
-    <t>D16: Wood and products of wood and cork</t>
-  </si>
-  <si>
-    <t>D17T18: Paper products and printing</t>
-  </si>
-  <si>
-    <t>D19: Coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>D20T21: Chemicals and pharmaceutical products</t>
-  </si>
-  <si>
-    <t>D22: Rubber and plastic products</t>
-  </si>
-  <si>
-    <t>D23: Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>D24: Basic metals</t>
-  </si>
-  <si>
-    <t>D25: Fabricated metal products</t>
-  </si>
-  <si>
-    <t>D26: Computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>D27: Electrical equipment</t>
-  </si>
-  <si>
-    <t>D28: Machinery and equipment, nec</t>
-  </si>
-  <si>
-    <t>D29: Motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>D30: Other transport equipment</t>
-  </si>
-  <si>
-    <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
-    <t>D41T43: Construction</t>
-  </si>
-  <si>
-    <t>D45T47: Wholesale and retail trade; repair of motor vehicles</t>
-  </si>
-  <si>
-    <t>D49T53: Transportation and storage</t>
-  </si>
-  <si>
-    <t>D55T56: Accomodation and food services</t>
-  </si>
-  <si>
-    <t>D58T60: Publishing, audiovisual and broadcasting activities</t>
-  </si>
-  <si>
-    <t>D61: Telecommunications</t>
-  </si>
-  <si>
-    <t>D62T63: IT and other information services</t>
-  </si>
-  <si>
-    <t>D64T66: Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>D68: Real estate activities</t>
-  </si>
-  <si>
-    <t>D69T82: Other business sector services</t>
-  </si>
-  <si>
-    <t>D84: Public admin. and defence; compulsory social security</t>
-  </si>
-  <si>
-    <t>D85: Education</t>
-  </si>
-  <si>
-    <t>D86T88: Human health and social work</t>
-  </si>
-  <si>
-    <t>D90T96: Arts, entertainment, recreation and other service activities</t>
-  </si>
-  <si>
-    <t>D97T98: Private households with employed persons</t>
-  </si>
-  <si>
-    <t>HFCE: Final consumption expenditure of households</t>
-  </si>
-  <si>
-    <t>NPISH: Final consumption expenditure of non-profit institutions serving households</t>
-  </si>
-  <si>
-    <t>GGFC: Final consumption expenditure of general government</t>
-  </si>
-  <si>
-    <t>GFCF: Gross Fixed Capital Formation</t>
-  </si>
-  <si>
-    <t>INVNT: Changes in inventories</t>
-  </si>
-  <si>
-    <t>CONS_ABR: Direct purchases abroad by residents (imports)</t>
-  </si>
-  <si>
-    <t>CONS_NONRES: Direct purchases by non-residents (exports)</t>
-  </si>
-  <si>
-    <t>EXPO: Exports (cross border)</t>
-  </si>
-  <si>
-    <t>IMPO: Imports (cross border)</t>
-  </si>
-  <si>
-    <t>From: (sector in row)</t>
-  </si>
-  <si>
-    <t>TTL_01T03: Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>TTL_05T06: Mining and extraction of energy producing products</t>
-  </si>
-  <si>
-    <t>TTL_07T08: Mining and quarrying of non-energy producing products</t>
-  </si>
-  <si>
-    <t>TTL_09: Mining support service activities</t>
-  </si>
-  <si>
-    <t>TTL_10T12: Food products, beverages and tobacco</t>
-  </si>
-  <si>
-    <t>TTL_13T15: Textiles, wearing apparel, leather and related products</t>
-  </si>
-  <si>
-    <t>TTL_16: Wood and of products of wood and cork (except furniture)</t>
-  </si>
-  <si>
-    <t>TTL_17T18: Paper products and printing</t>
-  </si>
-  <si>
-    <t>TTL_19: Coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>TTL_20T21: Chemicals and pharmaceutical products</t>
-  </si>
-  <si>
-    <t>TTL_22: Rubber and plastics products</t>
-  </si>
-  <si>
-    <t>TTL_23: Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>TTL_24: Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>TTL_25: Fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>TTL_26: Computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>TTL_27: Electrical equipment</t>
-  </si>
-  <si>
-    <t>TTL_28: Machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>TTL_29: Motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>TTL_30: Other transport equipment</t>
-  </si>
-  <si>
-    <t>TTL_31T33: Other manufacturing; repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>TTL_35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
-    <t>TTL_41T43: Construction</t>
-  </si>
-  <si>
-    <t>TTL_45T47: Wholesale and retail trade; repair of motor vehicles</t>
-  </si>
-  <si>
-    <t>TTL_49T53: Transportation and storage</t>
-  </si>
-  <si>
-    <t>TTL_55T56: Accomodation and food services</t>
-  </si>
-  <si>
-    <t>TTL_58T60: Publishing, audiovisual and broadcasting activities</t>
-  </si>
-  <si>
-    <t>TTL_61: Telecommunications</t>
-  </si>
-  <si>
-    <t>TTL_62T63: IT and other information services</t>
-  </si>
-  <si>
-    <t>TTL_64T66: Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>TTL_68: Real estate activities</t>
-  </si>
-  <si>
-    <t>TTL_69T82: Other business sector services</t>
-  </si>
-  <si>
-    <t>TTL_84: Public administration and defence; compulsory social security</t>
-  </si>
-  <si>
-    <t>TTL_85: Education</t>
-  </si>
-  <si>
-    <t>TTL_86T88: Human health and social work</t>
-  </si>
-  <si>
-    <t>TTL_90T96: Arts, entertainment, recreation and other service activities</t>
-  </si>
-  <si>
-    <t>TTL_97T98: Private households with employed persons</t>
-  </si>
-  <si>
-    <t>TXS_IMP_FNL: Taxes less subsidies on intermediate and final products (paid in foreign countries)</t>
-  </si>
-  <si>
-    <t>TXS_INT_FNL: Taxes less subsidies on intermediate and final products (paid in domestic agencies, includes duty on imported products)</t>
-  </si>
-  <si>
-    <t>TTL_INT_FNL: Total intermediate consumption at purchasers’ prices</t>
-  </si>
-  <si>
-    <t>VALU: Value added at basic prices</t>
-  </si>
-  <si>
-    <t>OUTPUT: Output at basic prices</t>
-  </si>
-  <si>
-    <t>Data extracted on 03 Jun 2020 20:33 UTC (GMT) from OECD.Stat</t>
-  </si>
-  <si>
-    <t>Input-Output Tables 2018 Edition (ISIC Rev. 4)</t>
-  </si>
-  <si>
-    <t>Variable: TTL</t>
-  </si>
-  <si>
-    <t>Unit: USD</t>
-  </si>
-  <si>
-    <t>We convert 2015 USD to 2012 USD with the following conversion factor:</t>
-  </si>
-  <si>
-    <t>2012 USD per 2015 USD</t>
-  </si>
-  <si>
-    <t>HEbIC Household Expenditures by ISIC Code</t>
   </si>
   <si>
     <t>Household Expenditures</t>
@@ -481,7 +465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -619,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -634,19 +618,6 @@
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFC0C0C0"/>
       </top>
@@ -682,10 +653,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -725,41 +696,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,176 +991,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="16">
         <v>0.9686815713640794</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{C06A9336-BC35-4B54-A51B-A07B7CB01714}"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC40CF3-8B3B-41DC-A935-B8F6C9564C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="23" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="27.46484375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.46484375" style="6" customWidth="1"/>
+    <col min="3" max="23" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="9.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.1328125" style="6" customWidth="1"/>
+    <col min="49" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="26"/>
+      <c r="C3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="18"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1250,15 +1206,15 @@
       <c r="AR4" s="20"/>
       <c r="AS4" s="20"/>
       <c r="AT4" s="20"/>
-      <c r="AU4" s="21"/>
+      <c r="AU4" s="18"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1303,15 +1259,15 @@
       <c r="AR5" s="20"/>
       <c r="AS5" s="20"/>
       <c r="AT5" s="20"/>
-      <c r="AU5" s="21"/>
+      <c r="AU5" s="18"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1356,299 +1312,205 @@
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
       <c r="AT6" s="20"/>
-      <c r="AU6" s="21"/>
+      <c r="AU6" s="18"/>
     </row>
-    <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:47" ht="120" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="AO7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="AP7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="AR7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="AS7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="AT7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="AU7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+    </row>
+    <row r="9" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="12">
         <v>67012.600000000006</v>
       </c>
@@ -1785,13 +1647,11 @@
         <v>-37816</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="13">
         <v>2211.3000000000002</v>
       </c>
@@ -1928,13 +1788,11 @@
         <v>-161022.9</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="12">
         <v>551.1</v>
       </c>
@@ -2071,13 +1929,11 @@
         <v>-7908.2</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="13">
         <v>3070.6</v>
       </c>
@@ -2214,13 +2070,11 @@
         <v>-1554.4</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="12">
         <v>32898.800000000003</v>
       </c>
@@ -2357,13 +2211,11 @@
         <v>-84486.2</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="13">
         <v>356</v>
       </c>
@@ -2500,13 +2352,11 @@
         <v>-145065.5</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="12">
         <v>745.1</v>
       </c>
@@ -2643,13 +2493,11 @@
         <v>-16997.3</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="13">
         <v>864.6</v>
       </c>
@@ -2786,13 +2634,11 @@
         <v>-23813.7</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="12">
         <v>10126.4</v>
       </c>
@@ -2929,13 +2775,11 @@
         <v>-55734.3</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="13">
         <v>16289.2</v>
       </c>
@@ -3072,13 +2916,11 @@
         <v>-165140.70000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="12">
         <v>2124.5</v>
       </c>
@@ -3215,13 +3057,11 @@
         <v>-49527.3</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="13">
         <v>151.6</v>
       </c>
@@ -3358,13 +3198,11 @@
         <v>-26110.400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="12">
         <v>236.9</v>
       </c>
@@ -3501,13 +3339,11 @@
         <v>-77529.899999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="13">
         <v>3511.3</v>
       </c>
@@ -3644,13 +3480,11 @@
         <v>-65502.400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="12">
         <v>471.8</v>
       </c>
@@ -3787,13 +3621,11 @@
         <v>-240846.5</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="13">
         <v>697.2</v>
       </c>
@@ -3930,13 +3762,11 @@
         <v>-88431.1</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="12">
         <v>7174</v>
       </c>
@@ -4073,13 +3903,11 @@
         <v>-128475.8</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="13">
         <v>823.4</v>
       </c>
@@ -4216,13 +4044,11 @@
         <v>-306727.09999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="12">
         <v>238.6</v>
       </c>
@@ -4359,13 +4185,11 @@
         <v>-61444.6</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="13">
         <v>402.5</v>
       </c>
@@ -4502,13 +4326,11 @@
         <v>-99643.3</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="12">
         <v>3079.4</v>
       </c>
@@ -4645,13 +4467,11 @@
         <v>-4933</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="13">
         <v>173.4</v>
       </c>
@@ -4788,13 +4608,11 @@
         <v>-1563</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="12">
         <v>48766.400000000001</v>
       </c>
@@ -4931,13 +4749,11 @@
         <v>-197714.9</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="13">
         <v>11809.7</v>
       </c>
@@ -5074,13 +4890,11 @@
         <v>-127601.9</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="12">
         <v>299.60000000000002</v>
       </c>
@@ -5217,13 +5031,11 @@
         <v>-51797.3</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="13">
         <v>118.7</v>
       </c>
@@ -5360,13 +5172,11 @@
         <v>-11993.5</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="12">
         <v>1123.5999999999999</v>
       </c>
@@ -5503,13 +5313,11 @@
         <v>-3766.8</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="13">
         <v>691.8</v>
       </c>
@@ -5646,13 +5454,11 @@
         <v>-62979.199999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="12">
         <v>19879.400000000001</v>
       </c>
@@ -5789,13 +5595,11 @@
         <v>-56936.7</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="13">
         <v>4793.8</v>
       </c>
@@ -5932,13 +5736,11 @@
         <v>-10003</v>
       </c>
     </row>
-    <row r="39" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="12">
         <v>16366.6</v>
       </c>
@@ -6075,13 +5877,11 @@
         <v>-132575.6</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="13">
         <v>208.9</v>
       </c>
@@ -6218,13 +6018,11 @@
         <v>-2410.8000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B41" s="10"/>
       <c r="C41" s="12">
         <v>2767.4</v>
       </c>
@@ -6361,13 +6159,11 @@
         <v>-11121.3</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="13">
         <v>4.7</v>
       </c>
@@ -6504,13 +6300,11 @@
         <v>-2867.1</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B43" s="10"/>
       <c r="C43" s="12">
         <v>333.1</v>
       </c>
@@ -6647,13 +6441,11 @@
         <v>-8872.6</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B44" s="10"/>
       <c r="C44" s="13">
         <v>0</v>
       </c>
@@ -6790,13 +6582,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="12">
         <v>465.9</v>
       </c>
@@ -6933,13 +6723,11 @@
         <v>-52880.800000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="13">
         <v>1037.5</v>
       </c>
@@ -7076,13 +6864,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B47" s="10"/>
       <c r="C47" s="12">
         <v>261877.3</v>
       </c>
@@ -7219,13 +7005,11 @@
         <v>-2583795.2000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B48" s="10"/>
       <c r="C48" s="13">
         <v>193880.1</v>
       </c>
@@ -7362,13 +7146,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B49" s="10"/>
       <c r="C49" s="12">
         <v>455757.4</v>
       </c>
@@ -7505,9 +7287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7523,9 +7305,9 @@
     <mergeCell ref="C5:AU5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D1C4AACA-BBF4-43A5-880C-7C65E754CE2A}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{42F580DE-8495-4BA9-90EA-2C61139986C1}"/>
-    <hyperlink ref="A50" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{D8DFEA93-7AED-4372-9474-6BEC5C03AEE9}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A50" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7533,249 +7315,642 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="37" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:AK2">TRANSPOSE('OECD TTL'!AM9:AM44)*10^6*About!$A$12</f>
+        <v>106254584694.76874</v>
+      </c>
+      <c r="C2">
+        <v>9628791687.5160847</v>
+      </c>
+      <c r="D2">
+        <v>1167939370.5936706</v>
+      </c>
+      <c r="E2">
+        <v>174459551.00267071</v>
+      </c>
+      <c r="F2">
+        <v>582606653457.76892</v>
+      </c>
+      <c r="G2">
+        <v>153776455827.21915</v>
+      </c>
+      <c r="H2">
+        <v>7536826965.9982195</v>
+      </c>
+      <c r="I2">
+        <v>62052482175.540154</v>
+      </c>
+      <c r="J2">
+        <v>165500893226.22427</v>
+      </c>
+      <c r="K2">
+        <v>382837971567.44031</v>
+      </c>
+      <c r="L2">
+        <v>51074026454.642494</v>
+      </c>
+      <c r="M2">
+        <v>15341203782.007198</v>
+      </c>
+      <c r="N2">
+        <v>3745407295.679213</v>
+      </c>
+      <c r="O2">
+        <v>35435146825.755119</v>
+      </c>
+      <c r="P2">
+        <v>138469737109.15253</v>
+      </c>
+      <c r="Q2">
+        <v>50996725665.247643</v>
+      </c>
+      <c r="R2">
+        <v>28201517191.593853</v>
+      </c>
+      <c r="S2">
+        <v>231611860581.30853</v>
+      </c>
+      <c r="T2">
+        <v>52919461716.248199</v>
+      </c>
+      <c r="U2">
+        <v>198484888203.79974</v>
+      </c>
+      <c r="V2">
+        <v>204620614144.97696</v>
+      </c>
+      <c r="W2">
+        <v>7002792815.7052031</v>
+      </c>
+      <c r="X2">
+        <v>1250342690165.6843</v>
+      </c>
+      <c r="Y2">
+        <v>459883900840.86798</v>
+      </c>
+      <c r="Z2">
+        <v>685256095948.39185</v>
+      </c>
+      <c r="AA2">
+        <v>188990162045.76044</v>
+      </c>
+      <c r="AB2">
+        <v>243334070012.69952</v>
+      </c>
+      <c r="AC2">
+        <v>75958874814.042877</v>
+      </c>
+      <c r="AD2">
+        <v>766082789394.85352</v>
+      </c>
+      <c r="AE2">
+        <v>1427523655174.9453</v>
+      </c>
+      <c r="AF2">
+        <v>316451801777.93158</v>
+      </c>
+      <c r="AG2">
+        <v>75932332938.987503</v>
+      </c>
+      <c r="AH2">
+        <v>559918484297.75085</v>
+      </c>
+      <c r="AI2">
+        <v>2061070850766.8225</v>
+      </c>
+      <c r="AJ2">
+        <v>433991236174.62042</v>
+      </c>
+      <c r="AK2">
+        <v>20682998307.294415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>9.8517003763339238E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.355855814528719E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.0970271412640881E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.322262484701591E-3</v>
+      </c>
+      <c r="F4">
+        <v>6.5986433205694875E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.7019181447471128E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.8437330719426323E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.9631248758754921E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.464767662916446E-3</v>
+      </c>
+      <c r="K4">
+        <v>8.7836606181125199E-3</v>
+      </c>
+      <c r="L4">
+        <v>2.7477652545666541E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.154779969650986E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.7809817111986653E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.5571894987555859E-2</v>
+      </c>
+      <c r="P4">
+        <v>8.6027859555941593E-3</v>
+      </c>
+      <c r="Q4">
+        <v>1.55539828575922E-2</v>
+      </c>
+      <c r="R4">
+        <v>1.174703269103528E-2</v>
+      </c>
+      <c r="S4">
+        <v>9.7750782955300375E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.4849910011691911E-2</v>
+      </c>
+      <c r="U4">
+        <v>8.5001347345728916E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.3873582259118922E-2</v>
+      </c>
+      <c r="W4">
+        <v>2.5644668869019081E-2</v>
+      </c>
+      <c r="X4">
+        <v>4.2438019717430643E-2</v>
+      </c>
+      <c r="Y4">
+        <v>2.2195170539901499E-2</v>
+      </c>
+      <c r="Z4">
+        <v>2.2940513808670421E-2</v>
+      </c>
+      <c r="AA4">
+        <v>2.050140988590142E-2</v>
+      </c>
+      <c r="AB4">
+        <v>1.8299824208063149E-2</v>
+      </c>
+      <c r="AC4">
+        <v>2.2760202312909449E-2</v>
+      </c>
+      <c r="AD4">
+        <v>1.759022283222994E-2</v>
+      </c>
+      <c r="AE4">
+        <v>2.7487850412697828E-2</v>
+      </c>
+      <c r="AF4">
+        <v>0.14008905247745709</v>
+      </c>
+      <c r="AG4">
+        <v>3.8476138541307499E-2</v>
+      </c>
+      <c r="AH4">
+        <v>2.0558230471871459E-2</v>
+      </c>
+      <c r="AI4">
+        <v>2.2425799851750139E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.5959222884430638E-2</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AK2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="37" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="AJ1" s="4" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:AK2">TRANSPOSE('OECD TTL'!AM9:AM44)*10^6*About!$A$12</f>
-        <v>106254584694.76874</v>
+        <f>'National HE'!B2*'National HE'!B4</f>
+        <v>1046788332.024658</v>
       </c>
       <c r="C2">
-        <v>9628791687.5160847</v>
+        <f>'National HE'!C2*'National HE'!C4</f>
+        <v>130552531.96404479</v>
       </c>
       <c r="D2">
-        <v>1167939370.5936706</v>
+        <f>'National HE'!D2*'National HE'!D4</f>
+        <v>128126.11888921527</v>
       </c>
       <c r="E2">
-        <v>174459551.00267071</v>
+        <f>'National HE'!E2*'National HE'!E4</f>
+        <v>230681.31938871532</v>
       </c>
       <c r="F2">
-        <v>582606653457.76892</v>
+        <f>'National HE'!F2*'National HE'!F4</f>
+        <v>38444135023.584488</v>
       </c>
       <c r="G2">
-        <v>153776455827.21915</v>
+        <f>'National HE'!G2*'National HE'!G4</f>
+        <v>5692678520.6168547</v>
       </c>
       <c r="H2">
-        <v>7536826965.9982195</v>
+        <f>'National HE'!H2*'National HE'!H4</f>
+        <v>289695510.66716403</v>
       </c>
       <c r="I2">
-        <v>62052482175.540154</v>
+        <f>'National HE'!I2*'National HE'!I4</f>
+        <v>2459217357.1970377</v>
       </c>
       <c r="J2">
-        <v>165500893226.22427</v>
+        <f>'National HE'!J2*'National HE'!J4</f>
+        <v>242420356.58156079</v>
       </c>
       <c r="K2">
-        <v>382837971567.44031</v>
+        <f>'National HE'!K2*'National HE'!K4</f>
+        <v>3362718813.9750061</v>
       </c>
       <c r="L2">
-        <v>51074026454.642494</v>
+        <f>'National HE'!L2*'National HE'!L4</f>
+        <v>1403394353.0288477</v>
       </c>
       <c r="M2">
-        <v>15341203782.007198</v>
+        <f>'National HE'!M2*'National HE'!M4</f>
+        <v>330569186.19803059</v>
       </c>
       <c r="N2">
-        <v>3745407295.679213</v>
+        <f>'National HE'!N2*'National HE'!N4</f>
+        <v>36633760.260028437</v>
       </c>
       <c r="O2">
-        <v>35435146825.755119</v>
+        <f>'National HE'!O2*'National HE'!O4</f>
+        <v>551792385.23928201</v>
       </c>
       <c r="P2">
-        <v>138469737109.15253</v>
+        <f>'National HE'!P2*'National HE'!P4</f>
+        <v>1191225509.6774328</v>
       </c>
       <c r="Q2">
-        <v>50996725665.247643</v>
+        <f>'National HE'!Q2*'National HE'!Q4</f>
+        <v>793202196.79059398</v>
       </c>
       <c r="R2">
-        <v>28201517191.593853</v>
+        <f>'National HE'!R2*'National HE'!R4</f>
+        <v>331284144.38644648</v>
       </c>
       <c r="S2">
-        <v>231611860581.30853</v>
+        <f>'National HE'!S2*'National HE'!S4</f>
+        <v>2264024071.3556781</v>
       </c>
       <c r="T2">
-        <v>52919461716.248199</v>
+        <f>'National HE'!T2*'National HE'!T4</f>
+        <v>1315043861.5159428</v>
       </c>
       <c r="U2">
-        <v>198484888203.79974</v>
+        <f>'National HE'!U2*'National HE'!U4</f>
+        <v>1687148292.5089355</v>
       </c>
       <c r="V2">
-        <v>204620614144.97696</v>
+        <f>'National HE'!V2*'National HE'!V4</f>
+        <v>4885027063.70154</v>
       </c>
       <c r="W2">
-        <v>7002792815.7052031</v>
+        <f>'National HE'!W2*'National HE'!W4</f>
+        <v>179584302.9171057</v>
       </c>
       <c r="X2">
-        <v>1250342690165.6843</v>
+        <f>'National HE'!X2*'National HE'!X4</f>
+        <v>53062067738.796585</v>
       </c>
       <c r="Y2">
-        <v>459883900840.86798</v>
+        <f>'National HE'!Y2*'National HE'!Y4</f>
+        <v>10207201607.718216</v>
       </c>
       <c r="Z2">
-        <v>685256095948.39185</v>
+        <f>'National HE'!Z2*'National HE'!Z4</f>
+        <v>15720126931.579666</v>
       </c>
       <c r="AA2">
-        <v>188990162045.76044</v>
+        <f>'National HE'!AA2*'National HE'!AA4</f>
+        <v>3874564776.5030642</v>
       </c>
       <c r="AB2">
-        <v>243334070012.69952</v>
+        <f>'National HE'!AB2*'National HE'!AB4</f>
+        <v>4452970705.0649319</v>
       </c>
       <c r="AC2">
-        <v>75958874814.042877</v>
+        <f>'National HE'!AC2*'National HE'!AC4</f>
+        <v>1728839358.2285779</v>
       </c>
       <c r="AD2">
-        <v>766082789394.85352</v>
+        <f>'National HE'!AD2*'National HE'!AD4</f>
+        <v>13475566973.391752</v>
       </c>
       <c r="AE2">
-        <v>1427523655174.9453</v>
+        <f>'National HE'!AE2*'National HE'!AE4</f>
+        <v>39239556694.03653</v>
       </c>
       <c r="AF2">
-        <v>316451801777.93158</v>
+        <f>'National HE'!AF2*'National HE'!AF4</f>
+        <v>44331433065.854507</v>
       </c>
       <c r="AG2">
-        <v>75932332938.987503</v>
+        <f>'National HE'!AG2*'National HE'!AG4</f>
+        <v>2921582961.9251699</v>
       </c>
       <c r="AH2">
-        <v>559918484297.75085</v>
+        <f>'National HE'!AH2*'National HE'!AH4</f>
+        <v>11510933245.654102</v>
       </c>
       <c r="AI2">
-        <v>2061070850766.8225</v>
+        <f>'National HE'!AI2*'National HE'!AI4</f>
+        <v>46221162379.573143</v>
       </c>
       <c r="AJ2">
-        <v>433991236174.62042</v>
+        <f>'National HE'!AJ2*'National HE'!AJ4</f>
+        <v>6926162868.0003443</v>
       </c>
       <c r="AK2">
-        <v>20682998307.294415</v>
+        <f>'National HE'!AK2*'National HE'!AK4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>